--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5206">
   <si>
     <t>translation_group</t>
   </si>
@@ -15589,12 +15589,6 @@
   </si>
   <si>
     <t xml:space="preserve"> értesítéseket</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15981,17 +15975,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54638,18 +54632,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5190</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5191</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54659,10 +54645,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="D2763" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54673,10 +54659,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="D2764" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54687,10 +54673,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="D2765" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54701,10 +54687,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
       <c r="D2766" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54715,10 +54701,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
       <c r="D2767" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54729,10 +54715,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="D2768" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54743,10 +54729,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="D2769" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54785,11 +54771,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="D2772" t="s">
-        <v>5207</v>
-      </c>
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5901">
   <si>
     <t>translation_group</t>
   </si>
@@ -10145,7 +10145,7 @@
     <t>Seo beállítások</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>A maximális eredmény elérése érdekében töltse ki a mezőket, amikor webhelyét megtalálja a keresőmotorokban.</t>
@@ -17131,6 +17131,607 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Üdvözöljük a Microweber oldalán</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Használja a Microweber webhelyét, online üzletét vagy blogját.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Tartalom létrehozása és szerkesztése, online értékesítés, megrendelések és ügyfelek kezelése.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Ezt a sablont használja.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>A változás csak az aktuális oldalt érinti.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Több sablon engedélyezése</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Ha több sablont engedélyez, akkor új oldalak létrehozásakor különböző sablonokat használhat.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>A rendszer e-mail webhelyének beállításai</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Az új regisztrációval, a jelszó visszaállításával és a rendszer egyéb funkcióival kapcsolatos üzenetek kézbesítése.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>E-mail címről</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Volt. A webhely neve</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Az e-mail szolgáltató általános beállításai</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Állítsa be az e-mail szolgáltatót.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Az általános e-mail szolgáltató minden, a webhellyel kapcsolatos üzenetet eljuttat. Beleértve a rendszerüzeneteket és a kapcsolatfelvételi űrlap üzeneteket.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Weboldal logója</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Válasszon logót a webhelyéhez.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Töltsön fel logót</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Weboldal Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Alapértelmezett nyelv módosítása ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Gyorsítótár törlése ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Telepítse a Többnyelvű modult</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>A felhasználók olyan ideiglenes e-mailekkel regisztrálhatnak, mint - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>A regisztrált felhasználók automatikusan automatikus e-mailt kaphatnak Öntől. Tekintse meg a beállításokat, és küldje el üzeneteit.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>E-mail küldése az új felhasználók regisztrációjáról az admin felhasználóknak</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Szeretné, hogy az adminisztrátorok e-mailt kapjanak új felhasználó regisztrálásakor?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>A Microweber ingyenes, nyílt forráskódú drag and drop webhely-készítő és CMS. MIT licenc alatt van, és a Laravel PHP keretrendszert használjuk</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Egy csúszka</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Szállítás címre</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Átvétel címről</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-mail integrációk</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Nincs rendszer e-mail és smtp beállítása.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Itt állíthatja be a rendszerbeállításokat.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globális kapcsolatfelvételi űrlap beállításai</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>E-mail küldési lehetőségek</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Globális küldő</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Használja az egyedi küldőbeállításokat</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Használja az egyedi küldőbeállításokat a globális kapcsolattartási űrlapokhoz.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Alapértelmezés szerint a weboldal rendszerének e-mail beállításait fogjuk használni.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Itt módosíthatja a rendszer e-mail beállításait.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globális vevők</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Küldéskor küldje el a kapcsolatfelvételi űrlap adatait a globális vevőknek</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>E-mail címekre</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>A vevők e-mail címe kómával elválasztva.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Vegye fel a kapcsolatot a tárhelyszolgáltatójával a PHP SOAP kiterjesztés engedélyezéséhez.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elemek</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 hónapja</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Távolítsa el a favicont</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Egyedi</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>TermékekV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Idővonal</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Fehér címke WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Tartalmi verziók</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Cache törlése</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Alapértelmezett elrendezések és elemek</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Nyilak listája</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Ellenőrzött lista</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Háttérszöveg</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Cím szöveggel</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikon szöveggel</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Két szöveges oszlop</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Két szöveges oszlop ikon és cím</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Kép címmel és szöveggel</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Szöveg képpel és címmel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Engedélyezze a megjegyzéseket</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha beállítások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt állíthatja be a captcha beállításait </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>A kapcsolatfelvételi űrlap jelenlegi beállításai</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Kapcsolatfelvételi űrlap neve</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Mi a neve ennek az űrlapnak?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Vevők</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Küldéskor küldje el a kapcsolatfelvételi űrlap adatait az egyéni vevőknek</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Használja az egyéni vevőbeállításokat az aktuális kapcsolatfelvételi űrlaphoz.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Alapértelmezés szerint a kapcsolatfelvételi űrlap globális beállításait fogjuk használni.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Itt módosíthatja a kapcsolatfelvételi űrlap globális beállításait.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automatikus válaszüzenet a felhasználónak</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Engedélyezze az automatikus válaszüzenetet a felhasználónak</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Engedélyezi a felhasználóknak, hogy "Köszönjük e-mailjeiket előfizetés után".</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Automatikus válaszalany</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Az automatikus válaszadók lehetővé teszik a bejövő e-mailek automatikus válaszainak beállítását</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Automatikus válasz üzenet</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automatikus válasz e-mail visszaküldve a felhasználónak</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Automatikus válasz egyéni küldő</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Használja az egyedi küldőbeállításokat az aktuális kapcsolatfelvételi űrlaphoz.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automatikus válasz e-mail címről</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automatikus válasz a névről</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Automatikus válasz az e-mailre</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Amikor a felhasználó megkapja az automatikus válaszüzenetet, válaszolhat, hogy válaszoljon az e-mailre.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Automatikus válasz az e-mail mellékletekre</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Ha og képeket szeretne csatolni, akkor feltöltheti azokat a galériába a "Média hozzáadása" menüből</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Még nincsenek bejegyzéseid</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Most készítse el első bejegyzését.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Hozzon létre egy bejegyzést</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                    árusító termékleírások megírása Az egyik legjobb dolog, amit tehetsz az üzleted sikeres elérése érdekében, hogy fektes egy kis időt a remek termékleírások megírásába. Részletes, mégis tömör információkat szeretne megadni, amelyek a potenciális vásárlókat vásárlásra csábítják.
+                                                    Gondolkodj úgy, mint egy fogyasztó
+                                                    Gondolj arra, amit fogyasztóként szeretnél tudni, majd foglald bele ezeket a funkciókat a leírásodba. Ruhákhoz: anyagok és fit. Ételekhez: összetevők és elkészítésük módja. A golyók a barátaid, amikor felsorolnak
+                                                   funkciót - próbálj
+                                                            mindegyiket korlátozni 5-8 szóra.</t>
   </si>
 </sst>
 </file>
@@ -17469,7 +18070,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67777,6 +68378,1757 @@
         <v>3614</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5713</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5717</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4924</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5898</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6197">
   <si>
     <t>translation_group</t>
   </si>
@@ -17732,6 +17732,894 @@
                                                     Gondolj arra, amit fogyasztóként szeretnél tudni, majd foglald bele ezeket a funkciókat a leírásodba. Ruhákhoz: anyagok és fit. Ételekhez: összetevők és elkészítésük módja. A golyók a barátaid, amikor felsorolnak
                                                    funkciót - próbálj
                                                             mindegyiket korlátozni 5-8 szóra.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Adminisztrációs nyelv</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Kódszerkesztő</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>címeket</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Címek 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Címek 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Címek 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Címek 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Címek 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Címek 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Címek 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Címek 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>1. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>2. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>3. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>4. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>5. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>6. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>7. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>8. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>9. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>10. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>11. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>12. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>13. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>14. szövegblokk</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>15. szövegblokk</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>jellemzők</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Jellemzők 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Jellemzők 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Jellemzők 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Jellemzők 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>rácsok</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>menü</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menü - bőr-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menü - bőr-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menü - bőr-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menü - bőr-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menü - bőr-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>láblécek</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Láblécek 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Láblécek 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Láblécek 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Láblécek 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>árazás</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Árképzés 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Alapértelmezett elrendezések</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Itt nincs tartalom</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Az egyéni mezők mentésre kerülnek</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Meglévő mezők</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Válasszon a lenti meglévő mezők közül</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Új mezők hozzáadása</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Új egyéni mező hozzáadása az alábbi listából</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>A te mezőid</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>A hozzáadott egyéni mezők listája</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ismételje meg függőlegesen </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Betűtípus család</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Fedvény</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Keverési mód</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Tartály</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Konténer típusa</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animációk</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Stílusok újratöltése</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Linkek a</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Csomag előnézete</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Demó</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Használat</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Jelenlegi</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Újrarendelés</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Rendszer</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Böngésző átirányítása</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integráció</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Önálló frissítő</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>A csomag telepítéséhez licenckulcsra van szüksége</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Ez a csomag prémium minőségű, és a telepítéshez licenckulccsal kell rendelkeznie</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Licenc kulcsra van szüksége</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licenc aktiválva</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Oldal újratöltése</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>A licenc nincs aktiválva</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Rendszerfrissítések</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Ellenőrizze a rendszerfrissítéseket</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Vissza a listához</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>A kategóriának nevet kell adni</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>A kategória el van rejtve?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Ha ezt YES-re állítja, ez a kategória el lesz rejtve a webhelyről</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Említés</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Az Ön kosara üres.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Talált eredmények</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Ha a kiválasztási mezőből a Százalékot választja, az automatikusan a termék Árából és Ajánlati árából kerül kiszámításra.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>value.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Tovább a kijelentkezéshez</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Megjelenítés</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>nak,-nek</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>eredmények)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Oldal címe – Jobb oldali navigációs útvonal</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Oldal címe – Bal oldali zsemlemorzsa</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Használati feltételek</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Szállítás és visszaküldés</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Körülbelül 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Körülbelül 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Körülbelül 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Otthon 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Otthon 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>A sablon módosításához kattintson a Sablon alkalmazása gombra</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Keresés kritériumok szerint</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Dátum innen:</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Állítsa be a rendeléseket a dátumtól</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Dátum ig</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Állítsa be a rendeléseket dátumra</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Rendelési összeg innen</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Mutassa meg a rendelést a minimális összeggel</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Rendelési összeg</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Mutassa meg a megrendelést a maximális összeggel</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Keresés termékek szerint...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Keresés termékek szerint</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Fizetési állapot</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Ingyenes keresés telefon, név, email stb.</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Adja meg ezt a kritériumot</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Szűrő visszaállítása</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Az összes exportálása</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Válassza ki a rendezést</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Rendelés dátuma</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Új &gt; Régi]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Régi &gt; Új]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Magas &gt; Alacsony]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Alacsony &gt; Magas]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Megrendelés kész</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>A többnyelvű modul fordításai megtalálhatók az adatbázisában.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Figyelem! Az alapértelmezett nyelv megváltoztatása tönkreteheti a fordításokat webhelyén.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Biztosan folytatja?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Figyelem! A változó alapértelmezett nyelv esetleg tönkreteszi a webhelyet.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Szállítási adatok</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>a megrendelés még nem készült el</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>a megrendelés elkészült</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Létrehozva:</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Frissítve:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyors nézet </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Cserélje le a nyelvi értékeket</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>A fordítások importálva vannak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fordítások nem találhatók az adatbázisban. Importálni szeretne fordításokat? </t>
   </si>
 </sst>
 </file>
@@ -17755,10 +18643,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17769,7 +18654,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18070,7 +18955,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70132,8 +71017,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>4481</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6077</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5898</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70145,5 +73664,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hu_HU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6010">
   <si>
     <t>translation_group</t>
   </si>
@@ -10148,7 +10148,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>A maximális eredmény elérése érdekében töltse ki a mezőket, amikor webhelyét megtalálja a keresőmotorokban.</t>
+    <t>Töltse ki a mezőket a maximális eredmény érdekében, amikor megtalálja webhelyét a keresőkben.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17136,37 +17136,43 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Üdvözöljük a Microweber oldalán</t>
+    <t>Üdvözöljük a Microweberben</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Használja a Microweber webhelyét, online üzletét vagy blogját.</t>
+    <t>Használja a Microwebert webhelye, online boltja vagy blogja elkészítéséhez.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Tartalom létrehozása és szerkesztése, online értékesítés, megrendelések és ügyfelek kezelése.</t>
+    <t>Tartalom létrehozása és szerkesztése, online értékesítés, rendelések és ügyfelek kezelése.</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
+    <t>Távolítsa el</t>
+  </si>
+  <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
+    <t>Elhagyott kocsi</t>
+  </si>
+  <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Ezt a sablont használja.</t>
+    <t>Ön ezt a sablont használja.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>A változás csak az aktuális oldalt érinti.</t>
+    <t>A változtatás csak az aktuális oldalt érinti.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -17184,13 +17190,13 @@
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>A rendszer e-mail webhelyének beállításai</t>
+    <t>A rendszer e-mail webhely beállításai</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Az új regisztrációval, a jelszó visszaállításával és a rendszer egyéb funkcióival kapcsolatos üzenetek kézbesítése.</t>
+    <t>Új regisztrációval, jelszó-visszaállítással és egyéb rendszerfunkciókkal kapcsolatos üzenetek kézbesítése.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17202,25 +17208,25 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Volt. A webhely neve</t>
+    <t>Volt. Az Ön webhelyének neve</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Az e-mail szolgáltató általános beállításai</t>
+    <t>Általános e-mail szolgáltató beállításai</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Állítsa be az e-mail szolgáltatót.</t>
+    <t>Állítsa be az e-mail szolgáltatóját.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Az általános e-mail szolgáltató minden, a webhellyel kapcsolatos üzenetet eljuttat. Beleértve a rendszerüzeneteket és a kapcsolatfelvételi űrlap üzeneteket.</t>
+    <t>Az általános e-mail szolgáltató kézbesít minden, a weboldallal kapcsolatos üzenetet. Beleértve a rendszerüzeneteket és a kapcsolatfelvételi űrlap üzeneteit.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17238,7 +17244,7 @@
     <t>Upload logo</t>
   </si>
   <si>
-    <t>Töltsön fel logót</t>
+    <t>Logó feltöltése</t>
   </si>
   <si>
     <t>Website Favicon</t>
@@ -17250,49 +17256,49 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Alapértelmezett nyelv módosítása ..</t>
+    <t>Alapértelmezett nyelv módosítása...</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Gyorsítótár törlése ..</t>
+    <t>Gyorsítótár törlése..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Telepítse a Többnyelvű modult</t>
+    <t>Telepítse a többnyelvű modult</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>A felhasználók olyan ideiglenes e-mailekkel regisztrálhatnak, mint - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>A felhasználók ideiglenes e-mailekkel regisztrálhatnak, mint például - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>A regisztrált felhasználók automatikusan automatikus e-mailt kaphatnak Öntől. Tekintse meg a beállításokat, és küldje el üzeneteit.</t>
+    <t>A regisztrált felhasználók automatikusan automatikus e-mailt kaphatnak Öntől. Tekintse meg a beállításokat, és tegye közzé üzeneteit.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>E-mail küldése az új felhasználók regisztrációjáról az admin felhasználóknak</t>
+    <t>E-mail küldése az új felhasználói regisztrációról az adminisztrátor felhasználóknak</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Szeretné, hogy az adminisztrátorok e-mailt kapjanak új felhasználó regisztrálásakor?</t>
+    <t>Szeretné, hogy az adminisztrátorok e-mailt kapjanak az új felhasználó regisztrálásakor?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>A Microweber ingyenes, nyílt forráskódú drag and drop webhely-készítő és CMS. MIT licenc alatt van, és a Laravel PHP keretrendszert használjuk</t>
+    <t>A Microweber egy ingyenes, nyílt forráskódú drag and drop webhelykészítő és CMS. MIT licenc alatt áll, és Laravel PHP keretrendszert használunk</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17310,7 +17316,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Átvétel címről</t>
+    <t>Átvétel a címről</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17349,25 +17355,25 @@
     <t>Global sender</t>
   </si>
   <si>
-    <t>Globális küldő</t>
+    <t>Globális feladó</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Használja az egyedi küldőbeállításokat</t>
+    <t>Egyéni küldőbeállítások használata</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Használja az egyedi küldőbeállításokat a globális kapcsolattartási űrlapokhoz.</t>
+    <t>Használjon egyéni küldőbeállításokat a globális kapcsolatfelvételi űrlapokhoz.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Alapértelmezés szerint a weboldal rendszerének e-mail beállításait fogjuk használni.</t>
+    <t>Alapértelmezés szerint a weboldal rendszer e-mail beállításait használjuk.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17385,7 +17391,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Küldéskor küldje el a kapcsolatfelvételi űrlap adatait a globális vevőknek</t>
+    <t>Elküldéskor küldje el a kapcsolatfelvételi űrlapok adatait a globális címzetteknek</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17403,7 +17409,7 @@
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Vegye fel a kapcsolatot a tárhelyszolgáltatójával a PHP SOAP kiterjesztés engedélyezéséhez.</t>
+    <t>Forduljon tárhelyszolgáltatójához a PHP SOAP kiterjesztésének engedélyezéséhez.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17424,7 +17430,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Távolítsa el a favicont</t>
+    <t>Favicon eltávolítása</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17454,7 +17460,7 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>Fehér címke WHMCS</t>
+    <t>Fehér WHMCS címke</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
@@ -17463,6 +17469,9 @@
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>A modul sablon megváltozott</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17472,7 +17481,7 @@
     <t>Clear Cache</t>
   </si>
   <si>
-    <t>Cache törlése</t>
+    <t>Törölje a gyorsítótárat</t>
   </si>
   <si>
     <t>Default layouts and elements</t>
@@ -17484,7 +17493,7 @@
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Nyilak listája</t>
+    <t>Nyilak lista</t>
   </si>
   <si>
     <t>Checked List</t>
@@ -17496,7 +17505,7 @@
     <t>Background Text</t>
   </si>
   <si>
-    <t>Háttérszöveg</t>
+    <t>Háttér szöveg</t>
   </si>
   <si>
     <t>Title with Text</t>
@@ -17520,7 +17529,7 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Két szöveges oszlop ikon és cím</t>
+    <t>Két szövegoszlop ikonnal és címmel</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17541,7 +17550,7 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Engedélyezze a megjegyzéseket</t>
+    <t>Megjegyzések engedélyezése</t>
   </si>
   <si>
     <t>Captcha settings</t>
@@ -17553,16 +17562,19 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Itt állíthatja be a captcha beállításait </t>
+    <t xml:space="preserve">Állítsa be a captcha beállításait innen </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Adja hozzá / szerkessze az űrlap mezőit az egyéni mezők használatával</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>A kapcsolatfelvételi űrlap jelenlegi beállításai</t>
+    <t>A kapcsolatfelvételi űrlap aktuális beállításai</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17574,7 +17586,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Mi a neve ennek az űrlapnak?</t>
+    <t>Mi ennek a kapcsolatfelvételi űrlapnak a neve?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17586,19 +17598,19 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Küldéskor küldje el a kapcsolatfelvételi űrlap adatait az egyéni vevőknek</t>
+    <t>Elküldéskor küldje el a kapcsolatfelvételi űrlap adatait az egyéni címzetteknek</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Használja az egyéni vevőbeállításokat az aktuális kapcsolatfelvételi űrlaphoz.</t>
+    <t>Egyéni fogadóbeállítások használata az aktuális kapcsolatfelvételi űrlaphoz.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Alapértelmezés szerint a kapcsolatfelvételi űrlap globális beállításait fogjuk használni.</t>
+    <t>Alapértelmezés szerint a kapcsolatfelvételi űrlap globális beállításait használjuk.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17616,33 +17628,30 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Engedélyezze az automatikus válaszüzenetet a felhasználónak</t>
+    <t>Automatikus válaszüzenet engedélyezése a felhasználónak</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Engedélyezi a felhasználóknak, hogy "Köszönjük e-mailjeiket előfizetés után".</t>
+    <t>Lehetővé teszi a felhasználók számára, hogy „Köszönő e-maileket kapjanak az előfizetés után”.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Automatikus válaszalany</t>
+    <t>Automatikus válasz tárgya</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Az automatikus válaszadók lehetővé teszik a bejövő e-mailek automatikus válaszainak beállítását</t>
+    <t>Az automatikus válaszadók segítségével beállíthat automatikus válaszokat a bejövő e-mailekre</t>
   </si>
   <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Automatikus válasz üzenet</t>
-  </si>
-  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
@@ -17652,61 +17661,61 @@
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Automatikus válasz egyéni küldő</t>
+    <t>Automatikus válasz egyéni feladó</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Használja az egyedi küldőbeállításokat az aktuális kapcsolatfelvételi űrlaphoz.</t>
+    <t>Egyéni feladóbeállítások használata az aktuális kapcsolatfelvételi űrlaphoz.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Automatikus válasz e-mail címről</t>
+    <t>Automatikus válasz az e-mail címről</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Automatikus válasz a névről</t>
+    <t>Automatikus válasz a névből</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Automatikus válasz az e-mailre</t>
+    <t>Automatikus válasz e-mailre</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Amikor a felhasználó megkapja az automatikus válaszüzenetet, válaszolhat, hogy válaszoljon az e-mailre.</t>
+    <t>Amikor a felhasználó megkapja az automatikus válaszüzenetet, válaszolhat az e-mailre.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automatikus válasz az e-mail mellékletekre</t>
+    <t>Automatikus válasz e-mail mellékletekre</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Ha og képeket szeretne csatolni, akkor feltöltheti azokat a galériába a "Média hozzáadása" menüből</t>
+    <t>Ha og képeket szeretne csatolni, fel kell töltenie őket a galériába a "Média hozzáadása" menüpontból.</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Még nincsenek bejegyzéseid</t>
+    <t>Még nincsenek bejegyzései</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Most készítse el első bejegyzését.</t>
+    <t>Készítse el első bejegyzését most.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17726,12 +17735,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                                                    árusító termékleírások megírása Az egyik legjobb dolog, amit tehetsz az üzleted sikeres elérése érdekében, hogy fektes egy kis időt a remek termékleírások megírásába. Részletes, mégis tömör információkat szeretne megadni, amelyek a potenciális vásárlókat vásárlásra csábítják.
-                                                    Gondolkodj úgy, mint egy fogyasztó
-                                                    Gondolj arra, amit fogyasztóként szeretnél tudni, majd foglald bele ezeket a funkciókat a leírásodba. Ruhákhoz: anyagok és fit. Ételekhez: összetevők és elkészítésük módja. A golyók a barátaid, amikor felsorolnak
-                                                   funkciót - próbálj
-                                                            mindegyiket korlátozni 5-8 szóra.</t>
+    <t>Hogyan írjunk árulkodó termékleírásokat
+                                                    Az egyik legjobb dolog, amit üzlete sikere érdekében tehet, ha szán egy kis időt a nagyszerű termékleírások megírására. Részletes, de tömör információkat szeretne adni, amelyek vásárlásra csábítják a potenciális vásárlókat.
+                                                    Gondolkozzon úgy, mint egy fogyasztó
+                                                    Gondolja át, hogy Ön mint fogyasztó mit szeretne tudni, majd foglalja bele ezeket a funkciókat a leírásába. Ruhákhoz: anyagok és szabás. Ételhez: hozzávalók és az elkészítési módja. A Bullets az Ön barátja, ha
+                                                   funkciót sorol fel – próbáljon
+                                                            mindegyiket 5-8 szóra korlátozni.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17740,343 +17749,268 @@
     <t>Adminisztrációs nyelv</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Bejegyzés hozzáadása</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Aloldal hozzáadása</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategória törölve</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Tartalom törölve</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Keresés a kategóriákban</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Hozzon létre tartalmat</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kártya</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Bármi</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Biztosan törölni akarod?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Nincsenek termékei</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Vissza a</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategóriákat</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Az egyéni mezők mentésre kerülnek</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Meglévő mezők</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Válasszon a lenti meglévő mezők közül</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Új mezők hozzáadása</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Új egyéni mező hozzáadása az alábbi listából</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>A te mezőid</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>A hozzáadott egyéni mezők listája</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Készlet</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Rendszer</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Böngésző átirányítása</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integráció</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Önálló frissítő</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Csomag előnézete</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Demó</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Használat</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Jelenlegi</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Expressz</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Első osztály</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Kattintson és gyűjtsön</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Videó Háttér</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Több nyelv használatához aktiválhatja a Többnyelvű modult</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Többnyelvű mód</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktiválja a többnyelvű módot, hogy több nyelven jelenítse meg a tartalmat.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>A fordítások importálva vannak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fordítások nem találhatók az adatbázisban. Importálni szeretne fordításokat? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Az Ön kosara üres.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Kódszerkesztő</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>címeket</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Címek 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Címek 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Címek 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Címek 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Címek 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Címek 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Címek 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Címek 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>1. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>2. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>3. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>4. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>5. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>6. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>7. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>8. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>9. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>10. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>11. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>12. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>13. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>14. szövegblokk</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>15. szövegblokk</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>jellemzők</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Jellemzők 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Jellemzők 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Jellemzők 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Jellemzők 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>rácsok</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>menü</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menü - bőr-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menü - bőr-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menü - bőr-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menü - bőr-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menü - bőr-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>láblécek</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Láblécek 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Láblécek 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Láblécek 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Láblécek 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>árazás</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Árképzés 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Alapértelmezett elrendezések</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Itt nincs tartalom</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Az egyéni mezők mentésre kerülnek</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Meglévő mezők</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Válasszon a lenti meglévő mezők közül</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Új mezők hozzáadása</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Új egyéni mező hozzáadása az alábbi listából</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>A te mezőid</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>A hozzáadott egyéni mezők listája</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Új import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18125,501 +18059,6 @@
   </si>
   <si>
     <t>Stílusok újratöltése</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Linkek a</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Csomag előnézete</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Demó</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Használat</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Jelenlegi</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Újrarendelés</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Rendszer</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Böngésző átirányítása</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integráció</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Önálló frissítő</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>A csomag telepítéséhez licenckulcsra van szüksége</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Ez a csomag prémium minőségű, és a telepítéshez licenckulccsal kell rendelkeznie</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Licenc kulcsra van szüksége</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licenc aktiválva</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Oldal újratöltése</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>A licenc nincs aktiválva</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Rendszerfrissítések</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Ellenőrizze a rendszerfrissítéseket</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Vissza a listához</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>A kategóriának nevet kell adni</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>A kategória el van rejtve?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Ha ezt YES-re állítja, ez a kategória el lesz rejtve a webhelyről</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Említés</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Az Ön kosara üres.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Talált eredmények</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Ha a kiválasztási mezőből a Százalékot választja, az automatikusan a termék Árából és Ajánlati árából kerül kiszámításra.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>value.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Tovább a kijelentkezéshez</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Megjelenítés</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>nak,-nek</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>eredmények)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Oldal címe – Jobb oldali navigációs útvonal</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Oldal címe – Bal oldali zsemlemorzsa</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Használati feltételek</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Szállítás és visszaküldés</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Körülbelül 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Körülbelül 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Körülbelül 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Otthon 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Otthon 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>A sablon módosításához kattintson a Sablon alkalmazása gombra</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Keresés kritériumok szerint</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Dátum innen:</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Állítsa be a rendeléseket a dátumtól</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Dátum ig</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Állítsa be a rendeléseket dátumra</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Rendelési összeg innen</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Mutassa meg a rendelést a minimális összeggel</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Rendelési összeg</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Mutassa meg a megrendelést a maximális összeggel</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Keresés termékek szerint...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Keresés termékek szerint</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Fizetési állapot</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Ingyenes keresés telefon, név, email stb.</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Adja meg ezt a kritériumot</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Szűrő visszaállítása</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Az összes exportálása</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Válassza ki a rendezést</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Rendelés dátuma</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Új &gt; Régi]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Régi &gt; Új]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Magas &gt; Alacsony]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Alacsony &gt; Magas]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Megrendelés kész</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>A többnyelvű modul fordításai megtalálhatók az adatbázisában.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Figyelem! Az alapértelmezett nyelv megváltoztatása tönkreteheti a fordításokat webhelyén.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Biztosan folytatja?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Figyelem! A változó alapértelmezett nyelv esetleg tönkreteszi a webhelyet.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Szállítási adatok</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>a megrendelés még nem készült el</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>a megrendelés elkészült</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Létrehozva:</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Frissítve:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyors nézet </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Cserélje le a nyelvi értékeket</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>A fordítások importálva vannak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fordítások nem találhatók az adatbázisban. Importálni szeretne fordításokat? </t>
   </si>
 </sst>
 </file>
@@ -18955,7 +18394,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69328,7 +68767,7 @@
         <v>5710</v>
       </c>
       <c r="D2963" t="s">
-        <v>2017</v>
+        <v>5711</v>
       </c>
       <c r="E2963" t="s">
         <v>8</v>
@@ -69342,10 +68781,10 @@
         <v>5</v>
       </c>
       <c r="C2964" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="D2964" t="s">
-        <v>1394</v>
+        <v>5713</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69359,10 +68798,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5712</v>
+        <v>5714</v>
       </c>
       <c r="D2965" t="s">
-        <v>5713</v>
+        <v>5715</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69376,10 +68815,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5714</v>
+        <v>5716</v>
       </c>
       <c r="D2966" t="s">
-        <v>5715</v>
+        <v>5717</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69393,10 +68832,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="D2967" t="s">
-        <v>5717</v>
+        <v>5719</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69410,10 +68849,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5718</v>
+        <v>5720</v>
       </c>
       <c r="D2968" t="s">
-        <v>5719</v>
+        <v>5721</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69427,10 +68866,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5720</v>
+        <v>5722</v>
       </c>
       <c r="D2969" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69444,10 +68883,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="D2970" t="s">
-        <v>5723</v>
+        <v>5725</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69461,10 +68900,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="D2971" t="s">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69478,10 +68917,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5726</v>
+        <v>5728</v>
       </c>
       <c r="D2972" t="s">
-        <v>5727</v>
+        <v>5729</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69495,10 +68934,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5728</v>
+        <v>5730</v>
       </c>
       <c r="D2973" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69512,10 +68951,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
       <c r="D2974" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69529,10 +68968,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5732</v>
+        <v>5734</v>
       </c>
       <c r="D2975" t="s">
-        <v>5733</v>
+        <v>5735</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69546,10 +68985,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="D2976" t="s">
-        <v>5735</v>
+        <v>5737</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69563,10 +69002,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5736</v>
+        <v>5738</v>
       </c>
       <c r="D2977" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69580,10 +69019,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
       <c r="D2978" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69597,10 +69036,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
       <c r="D2979" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69614,10 +69053,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="D2980" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69631,10 +69070,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5744</v>
+        <v>5746</v>
       </c>
       <c r="D2981" t="s">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69648,10 +69087,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="D2982" t="s">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69665,10 +69104,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5748</v>
+        <v>5750</v>
       </c>
       <c r="D2983" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69682,10 +69121,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="D2984" t="s">
-        <v>5751</v>
+        <v>5753</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69699,10 +69138,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5752</v>
+        <v>5754</v>
       </c>
       <c r="D2985" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69716,10 +69155,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5754</v>
+        <v>5756</v>
       </c>
       <c r="D2986" t="s">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69733,10 +69172,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="D2987" t="s">
-        <v>5757</v>
+        <v>5759</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69750,10 +69189,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="D2988" t="s">
-        <v>5759</v>
+        <v>5761</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69767,10 +69206,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5760</v>
+        <v>5762</v>
       </c>
       <c r="D2989" t="s">
-        <v>5761</v>
+        <v>5763</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69784,10 +69223,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5762</v>
+        <v>5764</v>
       </c>
       <c r="D2990" t="s">
-        <v>5763</v>
+        <v>5765</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69801,7 +69240,7 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5764</v>
+        <v>5766</v>
       </c>
       <c r="D2991" t="s">
         <v>3390</v>
@@ -69818,10 +69257,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5765</v>
+        <v>5767</v>
       </c>
       <c r="D2992" t="s">
-        <v>5766</v>
+        <v>5768</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69835,10 +69274,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5767</v>
+        <v>5769</v>
       </c>
       <c r="D2993" t="s">
-        <v>5768</v>
+        <v>5770</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69852,10 +69291,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5769</v>
+        <v>5771</v>
       </c>
       <c r="D2994" t="s">
-        <v>5770</v>
+        <v>5772</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69869,10 +69308,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5771</v>
+        <v>5773</v>
       </c>
       <c r="D2995" t="s">
-        <v>5772</v>
+        <v>5774</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69886,10 +69325,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5773</v>
+        <v>5775</v>
       </c>
       <c r="D2996" t="s">
-        <v>5774</v>
+        <v>5776</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69903,10 +69342,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5775</v>
+        <v>5777</v>
       </c>
       <c r="D2997" t="s">
-        <v>5776</v>
+        <v>5778</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69920,10 +69359,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5777</v>
+        <v>5779</v>
       </c>
       <c r="D2998" t="s">
-        <v>5778</v>
+        <v>5780</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69937,10 +69376,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5779</v>
+        <v>5781</v>
       </c>
       <c r="D2999" t="s">
-        <v>5780</v>
+        <v>5782</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69954,10 +69393,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5781</v>
+        <v>5783</v>
       </c>
       <c r="D3000" t="s">
-        <v>5782</v>
+        <v>5784</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69971,10 +69410,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5783</v>
+        <v>5785</v>
       </c>
       <c r="D3001" t="s">
-        <v>5784</v>
+        <v>5786</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69988,10 +69427,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5785</v>
+        <v>5787</v>
       </c>
       <c r="D3002" t="s">
-        <v>5786</v>
+        <v>5788</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70005,10 +69444,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5787</v>
+        <v>5789</v>
       </c>
       <c r="D3003" t="s">
-        <v>5788</v>
+        <v>5790</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70022,10 +69461,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5789</v>
+        <v>5791</v>
       </c>
       <c r="D3004" t="s">
-        <v>5790</v>
+        <v>5792</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70039,10 +69478,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5791</v>
+        <v>5793</v>
       </c>
       <c r="D3005" t="s">
-        <v>5792</v>
+        <v>5794</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70056,10 +69495,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5793</v>
+        <v>5795</v>
       </c>
       <c r="D3006" t="s">
-        <v>5794</v>
+        <v>5796</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70073,10 +69512,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5795</v>
+        <v>5797</v>
       </c>
       <c r="D3007" t="s">
-        <v>5796</v>
+        <v>5798</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70090,10 +69529,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5797</v>
+        <v>5799</v>
       </c>
       <c r="D3008" t="s">
-        <v>5798</v>
+        <v>5800</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70107,7 +69546,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5799</v>
+        <v>5801</v>
       </c>
       <c r="D3009" t="s">
         <v>3214</v>
@@ -70124,10 +69563,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5800</v>
+        <v>5802</v>
       </c>
       <c r="D3010" t="s">
-        <v>5801</v>
+        <v>5803</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70141,10 +69580,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5802</v>
+        <v>5804</v>
       </c>
       <c r="D3011" t="s">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70158,10 +69597,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="D3012" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70175,10 +69614,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5805</v>
+        <v>5807</v>
       </c>
       <c r="D3013" t="s">
-        <v>5805</v>
+        <v>5807</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70192,10 +69631,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5806</v>
+        <v>5808</v>
       </c>
       <c r="D3014" t="s">
-        <v>5807</v>
+        <v>5809</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70209,10 +69648,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5808</v>
+        <v>5810</v>
       </c>
       <c r="D3015" t="s">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70226,10 +69665,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5810</v>
+        <v>5812</v>
       </c>
       <c r="D3016" t="s">
-        <v>5811</v>
+        <v>5813</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70243,7 +69682,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5812</v>
+        <v>5814</v>
       </c>
       <c r="D3017" t="s">
         <v>3311</v>
@@ -70260,10 +69699,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="D3018" t="s">
-        <v>2887</v>
+        <v>5816</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70277,10 +69716,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5814</v>
+        <v>5817</v>
       </c>
       <c r="D3019" t="s">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70294,10 +69733,10 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
       <c r="D3020" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
       <c r="E3020" t="s">
         <v>8</v>
@@ -70311,10 +69750,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="D3021" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70328,10 +69767,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5820</v>
+        <v>5823</v>
       </c>
       <c r="D3022" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70345,10 +69784,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5822</v>
+        <v>5825</v>
       </c>
       <c r="D3023" t="s">
-        <v>5823</v>
+        <v>5826</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70362,10 +69801,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5824</v>
+        <v>5827</v>
       </c>
       <c r="D3024" t="s">
-        <v>5825</v>
+        <v>5828</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70379,10 +69818,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="D3025" t="s">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70396,10 +69835,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5828</v>
+        <v>5831</v>
       </c>
       <c r="D3026" t="s">
-        <v>5829</v>
+        <v>5832</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70413,10 +69852,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5830</v>
+        <v>5833</v>
       </c>
       <c r="D3027" t="s">
-        <v>5831</v>
+        <v>5834</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70430,10 +69869,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5832</v>
+        <v>5835</v>
       </c>
       <c r="D3028" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70447,10 +69886,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
       <c r="D3029" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70464,10 +69903,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="D3030" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70481,7 +69920,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="D3031" t="s">
         <v>1122</v>
@@ -70498,10 +69937,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="D3032" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70515,10 +69954,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="D3033" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70532,10 +69971,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
       <c r="D3034" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70549,10 +69988,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
       <c r="D3035" t="s">
-        <v>4924</v>
+        <v>5849</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70566,10 +70005,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5846</v>
+        <v>5850</v>
       </c>
       <c r="D3036" t="s">
-        <v>5847</v>
+        <v>5851</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70583,10 +70022,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5848</v>
+        <v>5852</v>
       </c>
       <c r="D3037" t="s">
-        <v>5849</v>
+        <v>5853</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70600,10 +70039,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5850</v>
+        <v>5854</v>
       </c>
       <c r="D3038" t="s">
-        <v>5851</v>
+        <v>5855</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70617,10 +70056,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5852</v>
+        <v>5856</v>
       </c>
       <c r="D3039" t="s">
-        <v>5853</v>
+        <v>5857</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70634,10 +70073,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5854</v>
+        <v>5858</v>
       </c>
       <c r="D3040" t="s">
-        <v>5855</v>
+        <v>5859</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70651,10 +70090,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="D3041" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70668,10 +70107,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
       <c r="D3042" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70685,10 +70124,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="D3043" t="s">
-        <v>5861</v>
+        <v>5865</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70702,10 +70141,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5862</v>
+        <v>5866</v>
       </c>
       <c r="D3044" t="s">
-        <v>5863</v>
+        <v>5867</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70719,10 +70158,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5864</v>
+        <v>5868</v>
       </c>
       <c r="D3045" t="s">
-        <v>5865</v>
+        <v>5869</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70736,10 +70175,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5866</v>
+        <v>5870</v>
       </c>
       <c r="D3046" t="s">
-        <v>5867</v>
+        <v>5871</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70753,10 +70192,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5868</v>
+        <v>5872</v>
       </c>
       <c r="D3047" t="s">
-        <v>5869</v>
+        <v>5873</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70770,10 +70209,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5870</v>
+        <v>5874</v>
       </c>
       <c r="D3048" t="s">
-        <v>5871</v>
+        <v>5875</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70787,10 +70226,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5872</v>
+        <v>5876</v>
       </c>
       <c r="D3049" t="s">
-        <v>5873</v>
+        <v>812</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70804,10 +70243,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="D3050" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70821,10 +70260,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5876</v>
+        <v>5879</v>
       </c>
       <c r="D3051" t="s">
-        <v>5877</v>
+        <v>5880</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70838,10 +70277,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="D3052" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70855,10 +70294,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5880</v>
+        <v>5883</v>
       </c>
       <c r="D3053" t="s">
-        <v>5881</v>
+        <v>5884</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70872,10 +70311,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5882</v>
+        <v>5885</v>
       </c>
       <c r="D3054" t="s">
-        <v>5883</v>
+        <v>5886</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70889,10 +70328,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5884</v>
+        <v>5887</v>
       </c>
       <c r="D3055" t="s">
-        <v>5885</v>
+        <v>5888</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70906,10 +70345,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5886</v>
+        <v>5889</v>
       </c>
       <c r="D3056" t="s">
-        <v>5887</v>
+        <v>5890</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70923,10 +70362,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5888</v>
+        <v>5891</v>
       </c>
       <c r="D3057" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70940,10 +70379,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5890</v>
+        <v>5893</v>
       </c>
       <c r="D3058" t="s">
-        <v>5891</v>
+        <v>5894</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70957,10 +70396,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5892</v>
+        <v>5895</v>
       </c>
       <c r="D3059" t="s">
-        <v>5893</v>
+        <v>5896</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70974,10 +70413,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
       <c r="D3060" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70991,10 +70430,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="D3061" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71005,13 +70444,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
       <c r="C3062" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
       <c r="D3062" t="s">
-        <v>5900</v>
+        <v>5903</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71025,10 +70464,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5901</v>
+        <v>5904</v>
       </c>
       <c r="D3063" t="s">
-        <v>5902</v>
+        <v>5905</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71042,10 +70481,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5903</v>
+        <v>5906</v>
       </c>
       <c r="D3064" t="s">
-        <v>4481</v>
+        <v>5907</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71059,10 +70498,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5904</v>
+        <v>5908</v>
       </c>
       <c r="D3065" t="s">
-        <v>5905</v>
+        <v>5909</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71076,10 +70515,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5906</v>
+        <v>5910</v>
       </c>
       <c r="D3066" t="s">
-        <v>5906</v>
+        <v>5911</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71093,10 +70532,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5907</v>
+        <v>5912</v>
       </c>
       <c r="D3067" t="s">
-        <v>5908</v>
+        <v>5913</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71110,10 +70549,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5909</v>
+        <v>5914</v>
       </c>
       <c r="D3068" t="s">
-        <v>5910</v>
+        <v>5915</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71127,10 +70566,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5911</v>
+        <v>5916</v>
       </c>
       <c r="D3069" t="s">
-        <v>5912</v>
+        <v>5917</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71144,10 +70583,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5913</v>
+        <v>5918</v>
       </c>
       <c r="D3070" t="s">
-        <v>5914</v>
+        <v>5919</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71161,10 +70600,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5915</v>
+        <v>5920</v>
       </c>
       <c r="D3071" t="s">
-        <v>5916</v>
+        <v>5921</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71178,10 +70617,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5917</v>
+        <v>5922</v>
       </c>
       <c r="D3072" t="s">
-        <v>5918</v>
+        <v>5922</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71195,10 +70634,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5919</v>
+        <v>5923</v>
       </c>
       <c r="D3073" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71212,10 +70651,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
       <c r="D3074" t="s">
-        <v>5922</v>
+        <v>4481</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71229,10 +70668,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5923</v>
+        <v>5925</v>
       </c>
       <c r="D3075" t="s">
-        <v>5924</v>
+        <v>5926</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71246,10 +70685,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5925</v>
+        <v>5927</v>
       </c>
       <c r="D3076" t="s">
-        <v>5926</v>
+        <v>5928</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71263,10 +70702,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5927</v>
+        <v>5929</v>
       </c>
       <c r="D3077" t="s">
-        <v>5928</v>
+        <v>5930</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71280,10 +70719,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5929</v>
+        <v>5931</v>
       </c>
       <c r="D3078" t="s">
-        <v>5930</v>
+        <v>5932</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71297,10 +70736,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5931</v>
+        <v>5933</v>
       </c>
       <c r="D3079" t="s">
-        <v>5932</v>
+        <v>5934</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71314,10 +70753,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5933</v>
+        <v>5935</v>
       </c>
       <c r="D3080" t="s">
-        <v>5934</v>
+        <v>5936</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71331,10 +70770,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5935</v>
+        <v>5937</v>
       </c>
       <c r="D3081" t="s">
-        <v>5936</v>
+        <v>5938</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71348,10 +70787,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5937</v>
+        <v>5939</v>
       </c>
       <c r="D3082" t="s">
-        <v>5938</v>
+        <v>5940</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71365,10 +70804,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5939</v>
+        <v>5941</v>
       </c>
       <c r="D3083" t="s">
-        <v>5940</v>
+        <v>5942</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71382,10 +70821,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5941</v>
+        <v>5943</v>
       </c>
       <c r="D3084" t="s">
-        <v>5942</v>
+        <v>5944</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71399,10 +70838,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="D3085" t="s">
-        <v>5944</v>
+        <v>5946</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71416,10 +70855,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="D3086" t="s">
-        <v>5946</v>
+        <v>5948</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71433,10 +70872,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5947</v>
+        <v>5949</v>
       </c>
       <c r="D3087" t="s">
-        <v>5948</v>
+        <v>5950</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71450,10 +70889,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5949</v>
+        <v>5951</v>
       </c>
       <c r="D3088" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71467,10 +70906,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="D3089" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71484,10 +70923,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="D3090" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71501,7 +70940,7 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="D3091" t="s">
         <v>5956</v>
@@ -71674,7 +71113,7 @@
         <v>5975</v>
       </c>
       <c r="D3101" t="s">
-        <v>5976</v>
+        <v>1510</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71688,10 +71127,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3102" t="s">
         <v>5977</v>
-      </c>
-      <c r="D3102" t="s">
-        <v>5978</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71705,10 +71144,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3103" t="s">
         <v>5979</v>
-      </c>
-      <c r="D3103" t="s">
-        <v>5980</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71722,10 +71161,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3104" t="s">
         <v>5981</v>
-      </c>
-      <c r="D3104" t="s">
-        <v>5982</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71739,10 +71178,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3105" t="s">
         <v>5983</v>
-      </c>
-      <c r="D3105" t="s">
-        <v>5984</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71756,10 +71195,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3106" t="s">
         <v>5985</v>
-      </c>
-      <c r="D3106" t="s">
-        <v>5986</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71773,10 +71212,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3107" t="s">
         <v>5987</v>
-      </c>
-      <c r="D3107" t="s">
-        <v>5988</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71790,10 +71229,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3108" t="s">
         <v>5989</v>
-      </c>
-      <c r="D3108" t="s">
-        <v>5990</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71806,11 +71245,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1285</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71823,11 +71262,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5991</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71844,7 +71283,7 @@
         <v>5992</v>
       </c>
       <c r="D3111" t="s">
-        <v>5992</v>
+        <v>5993</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71858,10 +71297,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5993</v>
+        <v>5994</v>
       </c>
       <c r="D3112" t="s">
-        <v>5993</v>
+        <v>5995</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71875,10 +71314,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5994</v>
+        <v>5996</v>
       </c>
       <c r="D3113" t="s">
-        <v>5995</v>
+        <v>5997</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71892,10 +71331,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5996</v>
+        <v>5998</v>
       </c>
       <c r="D3114" t="s">
-        <v>5997</v>
+        <v>5999</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71909,10 +71348,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5998</v>
+        <v>6000</v>
       </c>
       <c r="D3115" t="s">
-        <v>5999</v>
+        <v>6001</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71926,10 +71365,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D3116" t="s">
-        <v>6001</v>
+        <v>6003</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71943,10 +71382,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6002</v>
+        <v>6004</v>
       </c>
       <c r="D3117" t="s">
-        <v>6003</v>
+        <v>6005</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71960,10 +71399,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6004</v>
+        <v>6006</v>
       </c>
       <c r="D3118" t="s">
-        <v>6005</v>
+        <v>6007</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71977,1678 +71416,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6006</v>
+        <v>6008</v>
       </c>
       <c r="D3119" t="s">
-        <v>6007</v>
+        <v>6009</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2715</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6077</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5898</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6087</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6087</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6180</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4326</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
